--- a/test_物件管理/已完成/test_契約管理_契約手続き一覧and全駐車場一覧.xlsx
+++ b/test_物件管理/已完成/test_契約管理_契約手続き一覧and全駐車場一覧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="704" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="704" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="7" r:id="rId1"/>
@@ -16256,9 +16256,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:EY61"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -24338,9 +24336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IE186"/>
   <sheetViews>
-    <sheetView topLeftCell="C155" workbookViewId="0">
-      <selection activeCell="J175" sqref="J175"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -39546,9 +39542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -40216,7 +40210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -40470,8 +40464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:BO79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
